--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1356435.343122304</v>
+        <v>-1359074.690440326</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>319.5012518597898</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>127.2182191598793</v>
+        <v>229.1206745224528</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>59.64805723264379</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>101.7400017500776</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>66.16862161842695</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>35.54361781414437</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1105,13 +1105,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>137.8375841873657</v>
       </c>
       <c r="U7" t="n">
-        <v>118.0741708467082</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>145.6513251149812</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>345.3374211735832</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>90.24241285864095</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>137.0877840281466</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819384</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>176.7621441121389</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>189.2934099191535</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7197280522384</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.56474874233423</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>37.41782514683995</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>98.2054987677615</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.82449082152367</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>251.5502284016991</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652626</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1625.305326636295</v>
+        <v>1148.907795281707</v>
       </c>
       <c r="C2" t="n">
-        <v>1625.305326636295</v>
+        <v>779.9452783412949</v>
       </c>
       <c r="D2" t="n">
-        <v>1267.039628029544</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4370,10 +4370,10 @@
         <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.808578312941</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1625.305326636295</v>
+        <v>1148.907795281707</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143501</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>575.2365734374698</v>
+        <v>771.7836012132566</v>
       </c>
       <c r="C4" t="n">
-        <v>406.3003905095629</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1431.095035054648</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1208.116554249383</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1208.116554249383</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>953.4320660434963</v>
       </c>
       <c r="W4" t="n">
-        <v>803.2261243354872</v>
+        <v>953.4320660434963</v>
       </c>
       <c r="X4" t="n">
-        <v>575.2365734374698</v>
+        <v>953.4320660434963</v>
       </c>
       <c r="Y4" t="n">
-        <v>575.2365734374698</v>
+        <v>953.4320660434963</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>438.8191504929254</v>
+        <v>909.696546067094</v>
       </c>
       <c r="C5" t="n">
-        <v>69.85663355251364</v>
+        <v>540.7340291266823</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251364</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2526.436684143444</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2526.436684143444</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2272.855623407624</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1941.792736064053</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="W5" t="n">
-        <v>1589.024080793939</v>
+        <v>1669.762144392296</v>
       </c>
       <c r="X5" t="n">
-        <v>1215.558322532859</v>
+        <v>1296.296386131216</v>
       </c>
       <c r="Y5" t="n">
-        <v>825.4189905570472</v>
+        <v>1296.296386131216</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100998</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>622.0949848405774</v>
+        <v>790.6765725771249</v>
       </c>
       <c r="C7" t="n">
-        <v>622.0949848405774</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="D7" t="n">
-        <v>471.9783454282416</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1300.587489216817</v>
       </c>
       <c r="U7" t="n">
-        <v>1097.572052189994</v>
+        <v>1011.469151720655</v>
       </c>
       <c r="V7" t="n">
-        <v>842.8875639841075</v>
+        <v>1011.469151720655</v>
       </c>
       <c r="W7" t="n">
-        <v>842.8875639841075</v>
+        <v>1011.469151720655</v>
       </c>
       <c r="X7" t="n">
-        <v>842.8875639841075</v>
+        <v>1011.469151720655</v>
       </c>
       <c r="Y7" t="n">
-        <v>622.0949848405774</v>
+        <v>790.6765725771249</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1354.075868958388</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>968.2876163601441</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2392.186779586323</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2392.186779586323</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>650.5934525793617</v>
+        <v>618.4760397199826</v>
       </c>
       <c r="C10" t="n">
-        <v>481.6572696514548</v>
+        <v>618.4760397199826</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1597.136154795979</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1342.451666590092</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.034496553131</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.034496553131</v>
+        <v>839.2686188635128</v>
       </c>
       <c r="Y10" t="n">
-        <v>832.2419174096015</v>
+        <v>618.4760397199826</v>
       </c>
     </row>
     <row r="11">
@@ -5033,34 +5033,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172275</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135315</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237297</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093767</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.1865537761979</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C16" t="n">
-        <v>781.250370848291</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="D16" t="n">
-        <v>631.1337314359553</v>
+        <v>591.7265122257537</v>
       </c>
       <c r="E16" t="n">
-        <v>483.2206378535622</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>336.3306903556518</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>169.1345910705317</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>169.1345910705317</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.445529061503</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2409.167300603654</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2226.312466258559</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="T19" t="n">
-        <v>2006.7110012815</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U19" t="n">
-        <v>1717.635774625697</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V19" t="n">
-        <v>1462.95128641981</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W19" t="n">
-        <v>1173.53411638285</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X19" t="n">
-        <v>945.5445654848324</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>724.7519863413023</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="23">
@@ -5966,58 +5966,58 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>988.1395539230172</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6549,13 +6549,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6786,16 +6786,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6838,19 +6838,19 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345481</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384024</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7099,10 +7099,10 @@
         <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7111,19 +7111,19 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,19 +7251,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,25 +7819,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>240.446544241743</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>162.0073097921335</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>294.8344935184728</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>274.1466839488643</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>259.0197194961743</v>
+        <v>157.1172641336008</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.37549921168909</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>36.41624546988362</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>45.7142345943308</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>6.701087576231302</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.95742156328174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>76.60007353871531</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>67.31863952450735</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>109.4223302771042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4.186823682520725</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>34.97276993489191</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>135401.7127154575</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380013</v>
@@ -26335,25 +26335,25 @@
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="N2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="P2" t="n">
         <v>164208.3539728568</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728568</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182259</v>
+        <v>67721.68800182251</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53312.72503984562</v>
+        <v>53312.72503984563</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
@@ -26427,34 +26427,34 @@
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744297</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744308</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483778</v>
+        <v>16718.11565483773</v>
       </c>
       <c r="N4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="P4" t="n">
         <v>16718.11565483776</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1125600.568340152</v>
+        <v>-1125960.65135587</v>
       </c>
       <c r="C6" t="n">
-        <v>-64251.5554439711</v>
+        <v>-64251.55544397107</v>
       </c>
       <c r="D6" t="n">
-        <v>-224267.0181919702</v>
+        <v>-224267.0181919699</v>
       </c>
       <c r="E6" t="n">
-        <v>-273832.9280850053</v>
+        <v>-273867.6660104409</v>
       </c>
       <c r="F6" t="n">
-        <v>51579.53372234986</v>
+        <v>51544.79579691414</v>
       </c>
       <c r="G6" t="n">
-        <v>51579.53372234975</v>
+        <v>51544.79579691411</v>
       </c>
       <c r="H6" t="n">
-        <v>51579.53372234981</v>
+        <v>51544.79579691414</v>
       </c>
       <c r="I6" t="n">
-        <v>51579.53372234978</v>
+        <v>51544.79579691404</v>
       </c>
       <c r="J6" t="n">
-        <v>-116025.6440876328</v>
+        <v>-116060.3820130685</v>
       </c>
       <c r="K6" t="n">
-        <v>51579.53372234975</v>
+        <v>51544.79579691411</v>
       </c>
       <c r="L6" t="n">
-        <v>-23395.56553771895</v>
+        <v>-23395.56553771885</v>
       </c>
       <c r="M6" t="n">
-        <v>-40728.90547140824</v>
+        <v>-40728.90547140808</v>
       </c>
       <c r="N6" t="n">
-        <v>44326.12246410362</v>
+        <v>44326.12246410351</v>
       </c>
       <c r="O6" t="n">
-        <v>44326.12246410362</v>
+        <v>44326.12246410357</v>
       </c>
       <c r="P6" t="n">
-        <v>44326.12246410357</v>
+        <v>44326.12246410365</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>62.42911821247196</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>137.4010188240896</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.96741578556856</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>92.92245861165982</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>288.514420002256</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>87.90859758465001</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.9111118098462</v>
       </c>
       <c r="U7" t="n">
-        <v>168.1529832744924</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>261.2247206267302</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>3.903547543829859</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>58.37306015957141</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>149.1240541774663</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>485.1127032082914</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O21" t="n">
-        <v>459.3154675919703</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33023,7 +33023,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>724.9681211658385</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>489.8124929257571</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34384,13 +34384,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215495</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>490.1260733652754</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>528.9386420741739</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>544.5140226420051</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998995</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>342.516458763847</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O21" t="n">
-        <v>316.7192231475259</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36671,7 +36671,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>582.8340872438201</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>347.2162484813126</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
